--- a/products analysis/reference compounds analysis/raw CP reference matches sample100.xlsx
+++ b/products analysis/reference compounds analysis/raw CP reference matches sample100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBC29C9-1B16-4D29-ADFA-EA6D1E92FF0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7CFE7B8-09C9-474B-B997-9A9056647005}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="1185" yWindow="1140" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="raw CP reference matches sample" sheetId="1" r:id="rId1"/>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
